--- a/templates/Game_Library_Template.xlsx
+++ b/templates/Game_Library_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\1-Complete-Projects\Game-Library-Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\1-Complete-Projects\Game-Library-Tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596BE48C-6489-4813-9A13-15F891D7E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC009DA-2ACB-4CF6-B467-A3C2AEBD87D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Games" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Games!$A$1:$W$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Games!$A$1:$W$1</definedName>
     <definedName name="My_Rating">Games!$C:$C</definedName>
     <definedName name="Name">Games!$H:$H</definedName>
   </definedNames>
@@ -110,11 +110,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,15 +129,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,14 +143,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -181,27 +167,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -230,9 +200,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -251,34 +218,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="31">
     <dxf>
@@ -874,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +830,7 @@
     <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="9" customWidth="1"/>
     <col min="8" max="8" width="42.7109375" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="9" customWidth="1"/>
@@ -909,105 +851,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="V1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W2">
-      <sortCondition ref="Q1:Q2"/>
+  <autoFilter ref="A1:W1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1">
+      <sortCondition ref="Q1"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="J1:J1048576">

--- a/templates/Game_Library_Template.xlsx
+++ b/templates/Game_Library_Template.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\1-Complete-Projects\Game-Library-Tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC009DA-2ACB-4CF6-B467-A3C2AEBD87D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4CC7E2-79EF-4566-AF96-A9D176D6498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1140" yWindow="5490" windowWidth="22935" windowHeight="16815" tabRatio="172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Games!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Games!$A$1:$Z$1</definedName>
     <definedName name="My_Rating">Games!$C:$C</definedName>
     <definedName name="Name">Games!$H:$H</definedName>
   </definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Date Added</t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>App ID</t>
+  </si>
+  <si>
+    <t>User Tags</t>
+  </si>
+  <si>
+    <t>Last Play Time</t>
+  </si>
+  <si>
+    <t>Time Played</t>
   </si>
 </sst>
 </file>
@@ -222,7 +231,107 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -816,11 +925,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1:Z1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -837,20 +946,23 @@
     <col min="10" max="10" width="11.7109375" style="9" customWidth="1"/>
     <col min="11" max="12" width="20.7109375" style="4" customWidth="1"/>
     <col min="13" max="13" width="31.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" style="9" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="9" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="10.140625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="14" style="7" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.7109375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" style="9" customWidth="1"/>
-    <col min="24" max="447" width="9.140625" style="6" customWidth="1"/>
-    <col min="448" max="16384" width="9.140625" style="6"/>
+    <col min="14" max="14" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="9" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="10.140625" style="9" customWidth="1"/>
+    <col min="20" max="20" width="11" style="9" customWidth="1"/>
+    <col min="21" max="21" width="12.7109375" style="9" customWidth="1"/>
+    <col min="22" max="22" width="14" style="7" customWidth="1"/>
+    <col min="23" max="23" width="15.28515625" style="8" customWidth="1"/>
+    <col min="24" max="24" width="10.7109375" style="8" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="9" customWidth="1"/>
+    <col min="27" max="450" width="9.140625" style="6" customWidth="1"/>
+    <col min="451" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -890,79 +1002,84 @@
       <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="Q1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="W1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="X1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="Y1" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Z1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W1" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:W1">
-      <sortCondition ref="Q1"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="30" priority="40" operator="containsText" text="GOG">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="GOG">
       <formula>NOT(ISERROR(SEARCH("GOG",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="43" operator="containsText" text="MS">
+    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="MS">
       <formula>NOT(ISERROR(SEARCH("MS",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="51" operator="containsText" text="Not Enough Data">
+    <cfRule type="containsText" dxfId="38" priority="56" operator="containsText" text="Not Enough Data">
       <formula>NOT(ISERROR(SEARCH("Not Enough Data",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="63" operator="containsText" text="PS5">
+    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="PS5">
       <formula>NOT(ISERROR(SEARCH("PS5",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="64" operator="containsText" text="Uplay">
+    <cfRule type="containsText" dxfId="36" priority="69" operator="containsText" text="Uplay">
       <formula>NOT(ISERROR(SEARCH("Uplay",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="65" operator="containsText" text="Switch">
+    <cfRule type="containsText" dxfId="35" priority="70" operator="containsText" text="Switch">
       <formula>NOT(ISERROR(SEARCH("Switch",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="66" operator="containsText" text="PS4">
+    <cfRule type="containsText" dxfId="34" priority="71" operator="containsText" text="PS4">
       <formula>NOT(ISERROR(SEARCH("PS4",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="67" operator="containsText" text="Steam">
+    <cfRule type="containsText" dxfId="33" priority="72" operator="containsText" text="Steam">
       <formula>NOT(ISERROR(SEARCH("Steam",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="22" priority="10" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",O1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="11" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",O1)))</formula>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",P1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="9">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -974,42 +1091,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="20" priority="8" operator="containsText" text="Must Play">
+    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="Must Play">
       <formula>NOT(ISERROR(SEARCH("Must Play",I1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="49" operator="containsText" text="Removed">
+    <cfRule type="containsText" dxfId="28" priority="54" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="53" operator="containsText" text="Software">
+    <cfRule type="containsText" dxfId="27" priority="58" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="56" operator="containsText" text="Waiting">
+    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="57" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" dxfId="25" priority="62" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="58" operator="containsText" text="Playing">
+    <cfRule type="containsText" dxfId="24" priority="63" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",I1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="13" priority="59" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" dxfId="23" priority="64" operator="beginsWith" text="Played">
       <formula>LEFT(I1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="60" operator="containsText" text="Ignore">
+    <cfRule type="containsText" dxfId="22" priority="65" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="61" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="62" operator="containsText" text="Quit">
+    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1048576">
-    <cfRule type="dataBar" priority="1271">
+  <conditionalFormatting sqref="W1:X1048576">
+    <cfRule type="dataBar" priority="1276">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="num" val="6000"/>
@@ -1018,43 +1135,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="timePeriod" dxfId="9" priority="1" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="19" priority="6" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(A1,1)&lt;=6,FLOOR(A1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="8" priority="6" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="18" priority="11" timePeriod="today">
       <formula>FLOOR(A1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",N1)))</formula>
-    </cfRule>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:R1048576">
+    <cfRule type="top10" dxfId="16" priority="9" percent="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="top10" dxfId="6" priority="4" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Playable">
-      <formula>NOT(ISERROR(SEARCH("Playable",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="Unsupported">
-      <formula>NOT(ISERROR(SEARCH("Unsupported",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="15" operator="containsText" text="Verified">
-      <formula>NOT(ISERROR(SEARCH("Verified",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="44" operator="containsText" text="Unknown">
-      <formula>NOT(ISERROR(SEARCH("Unknown",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S1:S1048576">
-    <cfRule type="top10" dxfId="1" priority="3" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="aboveAverage" dxfId="0" priority="2"/>
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Playable">
+      <formula>NOT(ISERROR(SEARCH("Playable",Q1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",Q1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Verified">
+      <formula>NOT(ISERROR(SEARCH("Verified",Q1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="49" operator="containsText" text="Unknown">
+      <formula>NOT(ISERROR(SEARCH("Unknown",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:V1048576">
+    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:U1048576 S1">
+    <cfRule type="aboveAverage" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1272">
+    <cfRule type="colorScale" priority="1277">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1065,6 +1182,23 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="T1">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Playable">
+      <formula>NOT(ISERROR(SEARCH("Playable",T1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",T1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Verified">
+      <formula>NOT(ISERROR(SEARCH("Verified",T1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Unknown">
+      <formula>NOT(ISERROR(SEARCH("Unknown",T1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1">
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/templates/Game_Library_Template.xlsx
+++ b/templates/Game_Library_Template.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google Drive\Coding\Python\Scripts\1-Complete-Projects\Game-Library-Tracker\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4CC7E2-79EF-4566-AF96-A9D176D6498C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BE589C-76AE-4AF7-95BE-6697AA664C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="5490" windowWidth="22935" windowHeight="16815" tabRatio="172" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Games" sheetId="1" r:id="rId1"/>
+    <sheet name="Steam" sheetId="1" r:id="rId1"/>
+    <sheet name="Playstation" sheetId="2" r:id="rId2"/>
+    <sheet name="Sales" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Games!$A$1:$Z$1</definedName>
-    <definedName name="My_Rating">Games!$C:$C</definedName>
-    <definedName name="Name">Games!$H:$H</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Playstation!$A$1:$S$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sales!$A$1:$O$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Steam!$A$1:$V$1</definedName>
+    <definedName name="My_Rating">Steam!$D:$D</definedName>
+    <definedName name="Name">Steam!$G:$G</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +39,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
+  <si>
+    <t>App ID</t>
+  </si>
   <si>
     <t>Date Added</t>
   </si>
@@ -46,83 +53,85 @@
     <t>My Rating</t>
   </si>
   <si>
+    <t>Steam Review Percent</t>
+  </si>
+  <si>
+    <t>Steam Review Total</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Play Status</t>
+  </si>
+  <si>
+    <t>Developers</t>
+  </si>
+  <si>
+    <t>Publishers</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>User Tags</t>
+  </si>
+  <si>
+    <t>Early Access</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Hours Played</t>
+  </si>
+  <si>
+    <t>Linux Hours</t>
+  </si>
+  <si>
+    <t>Time Played</t>
+  </si>
+  <si>
+    <t>Last Play Time</t>
+  </si>
+  <si>
+    <t>Time To Beat in Hours</t>
+  </si>
+  <si>
+    <t>Probable Completion</t>
+  </si>
+  <si>
+    <t>Store Link</t>
+  </si>
+  <si>
+    <t>Release Year</t>
+  </si>
+  <si>
     <t>Metacritic</t>
   </si>
   <si>
     <t>Rating Comparison</t>
   </si>
   <si>
-    <t>Steam Review Percent</t>
-  </si>
-  <si>
-    <t>Steam Review Total</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Play Status</t>
-  </si>
-  <si>
     <t>Platform</t>
   </si>
   <si>
-    <t>Developers</t>
-  </si>
-  <si>
-    <t>Publishers</t>
-  </si>
-  <si>
-    <t>Genre</t>
-  </si>
-  <si>
-    <t>VR Support</t>
-  </si>
-  <si>
-    <t>Early Access</t>
-  </si>
-  <si>
-    <t>Steam Deck Status</t>
-  </si>
-  <si>
-    <t>Hours Played</t>
-  </si>
-  <si>
-    <t>Linux Hours</t>
-  </si>
-  <si>
-    <t>Time To Beat in Hours</t>
-  </si>
-  <si>
-    <t>Probable Completion</t>
-  </si>
-  <si>
-    <t>Store Link</t>
-  </si>
-  <si>
-    <t>Release Year</t>
-  </si>
-  <si>
-    <t>App ID</t>
-  </si>
-  <si>
-    <t>User Tags</t>
-  </si>
-  <si>
-    <t>Last Play Time</t>
-  </si>
-  <si>
-    <t>Time Played</t>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +146,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -176,11 +197,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -224,14 +291,86 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="67">
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -244,6 +383,96 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF246CAE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1" tint="0.24994659260841701"/>
       </font>
       <fill>
@@ -294,16 +523,6 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1" tint="0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -324,6 +543,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -334,56 +573,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -394,11 +583,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -408,87 +597,17 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FF2A87C2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="4" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -498,17 +617,27 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="5" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31B149"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -518,47 +647,7 @@
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="0.79998168889431442"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF31B149"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -646,6 +735,266 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF581C6C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="2" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="5" tint="0.79998168889431442"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF31B149"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF246CAE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -925,161 +1274,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S6" sqref="S6"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="8" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="9" customWidth="1"/>
-    <col min="8" max="8" width="42.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.7109375" style="9" customWidth="1"/>
-    <col min="11" max="12" width="20.7109375" style="4" customWidth="1"/>
-    <col min="13" max="13" width="31.140625" style="4" customWidth="1"/>
-    <col min="14" max="14" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.85546875" style="9" customWidth="1"/>
-    <col min="17" max="17" width="13.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="10.140625" style="9" customWidth="1"/>
-    <col min="20" max="20" width="11" style="9" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="9" customWidth="1"/>
-    <col min="22" max="22" width="14" style="7" customWidth="1"/>
-    <col min="23" max="23" width="15.28515625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="5" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="9" customWidth="1"/>
-    <col min="27" max="450" width="9.140625" style="6" customWidth="1"/>
-    <col min="451" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="9.28515625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="39.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" style="9" customWidth="1"/>
+    <col min="9" max="12" width="17.140625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.42578125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="9" customWidth="1"/>
+    <col min="17" max="18" width="13.85546875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="13.140625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" style="8" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="8" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="5" customWidth="1"/>
+    <col min="23" max="797" width="9.140625" style="6" customWidth="1"/>
+    <col min="798" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:22" s="1" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12" t="s">
+      <c r="O1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="Q1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="R1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="V1" s="12" t="s">
+      <c r="S1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="T1" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="13" t="s">
+      <c r="U1" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="V1" s="29" t="s">
         <v>21</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Z1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="GOG">
-      <formula>NOT(ISERROR(SEARCH("GOG",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="48" operator="containsText" text="MS">
-      <formula>NOT(ISERROR(SEARCH("MS",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="56" operator="containsText" text="Not Enough Data">
-      <formula>NOT(ISERROR(SEARCH("Not Enough Data",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="68" operator="containsText" text="PS5">
-      <formula>NOT(ISERROR(SEARCH("PS5",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="69" operator="containsText" text="Uplay">
-      <formula>NOT(ISERROR(SEARCH("Uplay",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="70" operator="containsText" text="Switch">
-      <formula>NOT(ISERROR(SEARCH("Switch",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="71" operator="containsText" text="PS4">
-      <formula>NOT(ISERROR(SEARCH("PS4",J1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="72" operator="containsText" text="Steam">
-      <formula>NOT(ISERROR(SEARCH("Steam",J1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="containsText" dxfId="32" priority="15" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",P1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="colorScale" priority="14">
+  <autoFilter ref="A1:V1" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V1">
+      <sortCondition descending="1" ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="containsText" dxfId="66" priority="19" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",M1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="20" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="Replay">
+      <formula>NOT(ISERROR(SEARCH("Replay",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="Must Play">
+      <formula>NOT(ISERROR(SEARCH("Must Play",H1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+      <formula>"Endless"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="60" priority="58" operator="containsText" text="Removed">
+      <formula>NOT(ISERROR(SEARCH("Removed",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="62" operator="containsText" text="Software">
+      <formula>NOT(ISERROR(SEARCH("Software",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="65" operator="containsText" text="Waiting">
+      <formula>NOT(ISERROR(SEARCH("Waiting",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="66" operator="containsText" text="Unplayed">
+      <formula>NOT(ISERROR(SEARCH("Unplayed",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="56" priority="67" operator="containsText" text="Playing">
+      <formula>NOT(ISERROR(SEARCH("Playing",H1)))</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="55" priority="68" operator="beginsWith" text="Played">
+      <formula>LEFT(H1,LEN("Played"))="Played"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="69" operator="containsText" text="Ignore">
+      <formula>NOT(ISERROR(SEARCH("Ignore",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="70" operator="containsText" text="Finished">
+      <formula>NOT(ISERROR(SEARCH("Finished",H1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="52" priority="71" operator="containsText" text="Quit">
+      <formula>NOT(ISERROR(SEARCH("Quit",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1048576">
+    <cfRule type="dataBar" priority="1280">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="6000"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="timePeriod" dxfId="51" priority="10" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(B1,1)&lt;=6,FLOOR(B1,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="50" priority="15" timePeriod="today">
+      <formula>FLOOR(B1,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="top10" dxfId="49" priority="13" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576 N1:N1048576">
+    <cfRule type="containsText" dxfId="48" priority="21" operator="containsText" text="Playable">
+      <formula>NOT(ISERROR(SEARCH("Playable",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="24" operator="containsText" text="Verified">
+      <formula>NOT(ISERROR(SEARCH("Verified",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="53" operator="containsText" text="Unknown">
+      <formula>NOT(ISERROR(SEARCH("Unknown",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:S1048576">
+    <cfRule type="top10" dxfId="44" priority="12" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576 R1:R1048576">
+    <cfRule type="aboveAverage" dxfId="43" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1090,88 +1492,239 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="containsText" dxfId="30" priority="13" operator="containsText" text="Must Play">
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="containsText" dxfId="42" priority="4" operator="containsText" text="No Reviews">
+      <formula>NOT(ISERROR(SEARCH("No Reviews",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:K1048576">
+    <cfRule type="containsText" dxfId="41" priority="3" operator="containsText" text="No Data">
+      <formula>NOT(ISERROR(SEARCH("No Data",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="No Tags">
+      <formula>NOT(ISERROR(SEARCH("No Tags",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:S1"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="13" width="20.7109375" customWidth="1"/>
+    <col min="14" max="14" width="38.42578125" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="containsText" dxfId="39" priority="31" operator="containsText" text="GOG">
+      <formula>NOT(ISERROR(SEARCH("GOG",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="32" operator="containsText" text="MS">
+      <formula>NOT(ISERROR(SEARCH("MS",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="35" operator="containsText" text="Not Enough Data">
+      <formula>NOT(ISERROR(SEARCH("Not Enough Data",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="44" operator="containsText" text="PS5">
+      <formula>NOT(ISERROR(SEARCH("PS5",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="45" operator="containsText" text="Uplay">
+      <formula>NOT(ISERROR(SEARCH("Uplay",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="46" operator="containsText" text="Switch">
+      <formula>NOT(ISERROR(SEARCH("Switch",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="47" operator="containsText" text="PS4">
+      <formula>NOT(ISERROR(SEARCH("PS4",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="48" operator="containsText" text="Steam">
+      <formula>NOT(ISERROR(SEARCH("Steam",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="31" priority="16" operator="containsText" text="Replay">
+      <formula>NOT(ISERROR(SEARCH("Replay",I1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Must Play">
       <formula>NOT(ISERROR(SEARCH("Must Play",I1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"Endless"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="54" operator="containsText" text="Removed">
+    <cfRule type="containsText" dxfId="28" priority="34" operator="containsText" text="Removed">
       <formula>NOT(ISERROR(SEARCH("Removed",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="58" operator="containsText" text="Software">
+    <cfRule type="containsText" dxfId="27" priority="36" operator="containsText" text="Software">
       <formula>NOT(ISERROR(SEARCH("Software",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="61" operator="containsText" text="Waiting">
+    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="Waiting">
       <formula>NOT(ISERROR(SEARCH("Waiting",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="62" operator="containsText" text="Unplayed">
+    <cfRule type="containsText" dxfId="25" priority="38" operator="containsText" text="Unplayed">
       <formula>NOT(ISERROR(SEARCH("Unplayed",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="63" operator="containsText" text="Playing">
+    <cfRule type="containsText" dxfId="24" priority="39" operator="containsText" text="Playing">
       <formula>NOT(ISERROR(SEARCH("Playing",I1)))</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="23" priority="64" operator="beginsWith" text="Played">
+    <cfRule type="beginsWith" dxfId="23" priority="40" operator="beginsWith" text="Played">
       <formula>LEFT(I1,LEN("Played"))="Played"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="65" operator="containsText" text="Ignore">
+    <cfRule type="containsText" dxfId="22" priority="41" operator="containsText" text="Ignore">
       <formula>NOT(ISERROR(SEARCH("Ignore",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="66" operator="containsText" text="Finished">
+    <cfRule type="containsText" dxfId="21" priority="42" operator="containsText" text="Finished">
       <formula>NOT(ISERROR(SEARCH("Finished",I1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="67" operator="containsText" text="Quit">
+    <cfRule type="containsText" dxfId="20" priority="43" operator="containsText" text="Quit">
       <formula>NOT(ISERROR(SEARCH("Quit",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W1:X1048576">
-    <cfRule type="dataBar" priority="1276">
-      <dataBar>
+  <conditionalFormatting sqref="A1:B1">
+    <cfRule type="timePeriod" dxfId="19" priority="18" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(A1,1)&lt;=6,FLOOR(A1,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="18" priority="22" timePeriod="today">
+      <formula>FLOOR(A1,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1">
+    <cfRule type="containsText" dxfId="17" priority="27" operator="containsText" text="Playable">
+      <formula>NOT(ISERROR(SEARCH("Playable",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="28" operator="containsText" text="Unsupported">
+      <formula>NOT(ISERROR(SEARCH("Unsupported",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="29" operator="containsText" text="Verified">
+      <formula>NOT(ISERROR(SEARCH("Verified",O1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="33" operator="containsText" text="Unknown">
+      <formula>NOT(ISERROR(SEARCH("Unknown",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="No Reviews">
+      <formula>NOT(ISERROR(SEARCH("No Reviews",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:M1">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="No Data">
+      <formula>NOT(ISERROR(SEARCH("No Data",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="No Tags">
+      <formula>NOT(ISERROR(SEARCH("No Tags",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1">
+    <cfRule type="cellIs" dxfId="10" priority="1328" operator="equal">
+      <formula>11</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1329">
+      <colorScale>
         <cfvo type="min"/>
-        <cfvo type="num" val="6000"/>
-        <color rgb="FF638EC6"/>
-      </dataBar>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B1048576">
-    <cfRule type="timePeriod" dxfId="19" priority="6" timePeriod="last7Days">
-      <formula>AND(TODAY()-FLOOR(A1,1)&lt;=6,FLOOR(A1,1)&lt;=TODAY())</formula>
-    </cfRule>
-    <cfRule type="timePeriod" dxfId="18" priority="11" timePeriod="today">
-      <formula>FLOOR(A1,1)=TODAY()</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",O1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:R1048576">
-    <cfRule type="top10" dxfId="16" priority="9" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="Playable">
-      <formula>NOT(ISERROR(SEARCH("Playable",Q1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="Unsupported">
-      <formula>NOT(ISERROR(SEARCH("Unsupported",Q1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="20" operator="containsText" text="Verified">
-      <formula>NOT(ISERROR(SEARCH("Verified",Q1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="49" operator="containsText" text="Unknown">
-      <formula>NOT(ISERROR(SEARCH("Unknown",Q1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:V1048576">
-    <cfRule type="top10" dxfId="11" priority="8" percent="1" rank="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S2:U1048576 S1">
-    <cfRule type="aboveAverage" dxfId="10" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="colorScale" priority="1277">
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1">
+    <cfRule type="top10" dxfId="9" priority="1330" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1">
+    <cfRule type="top10" dxfId="8" priority="1331" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1">
+    <cfRule type="colorScale" priority="1332">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -1182,22 +1735,462 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Playable">
-      <formula>NOT(ISERROR(SEARCH("Playable",T1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Unsupported">
-      <formula>NOT(ISERROR(SEARCH("Unsupported",T1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Verified">
-      <formula>NOT(ISERROR(SEARCH("Verified",T1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Unknown">
-      <formula>NOT(ISERROR(SEARCH("Unknown",T1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="colorScale" priority="1333">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1">
+    <cfRule type="dataBar" priority="1334">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="6000"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:O215"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" customWidth="1"/>
+    <col min="11" max="11" width="71" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <autoFilter ref="A1:O168" xr:uid="{00000000-0009-0000-0000-000002000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O168">
+      <sortCondition descending="1" ref="F1:F168"/>
+    </sortState>
+  </autoFilter>
+  <conditionalFormatting sqref="L1">
+    <cfRule type="containsText" dxfId="7" priority="58" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",L1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="59" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",L1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:E1">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="timePeriod" dxfId="5" priority="51" timePeriod="last7Days">
+      <formula>AND(TODAY()-FLOOR(A1,1)&lt;=6,FLOOR(A1,1)&lt;=TODAY())</formula>
+    </cfRule>
+    <cfRule type="timePeriod" dxfId="4" priority="55" timePeriod="today">
+      <formula>FLOOR(A1,1)=TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="top10" dxfId="3" priority="53" percent="1" rank="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:G1">
+    <cfRule type="containsText" dxfId="2" priority="48" operator="containsText" text="No Reviews">
+      <formula>NOT(ISERROR(SEARCH("No Reviews",F1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:J1">
+    <cfRule type="containsText" dxfId="1" priority="47" operator="containsText" text="No Data">
+      <formula>NOT(ISERROR(SEARCH("No Data",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="containsText" dxfId="0" priority="46" operator="containsText" text="No Tags">
+      <formula>NOT(ISERROR(SEARCH("No Tags",K1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="dataBar" priority="1326">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="num" val="6000"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="num" val="10000"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="1"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="10"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
